--- a/biology/Biologie cellulaire et moléculaire/PHACTR1/PHACTR1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PHACTR1/PHACTR1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PHACTR1 (pour « Phosphatase and actin regulator 1 » est une protéine dont le gène est situé sur le chromosome 6 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son expression est modulée par la neuropiline 1. Il intervient dans l'angiogenèse[5] et dans la formation de l'athérome[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son expression est modulée par la neuropiline 1. Il intervient dans l'angiogenèse et dans la formation de l'athérome. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un variant du gène est associé avec une augmentation du risque de survenue d'une dissection spontanée d'une artère coronaire[7], d'une artère carotide[8] ou d'une dysplasie fibromusculaire[9]. Ce variant régule l'expression de l'endothéline-1[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un variant du gène est associé avec une augmentation du risque de survenue d'une dissection spontanée d'une artère coronaire, d'une artère carotide ou d'une dysplasie fibromusculaire. Ce variant régule l'expression de l'endothéline-1.
 </t>
         </is>
       </c>
